--- a/Testdata/TestData.xlsx
+++ b/Testdata/TestData.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28822"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C059B0F-8C7E-4E74-AC0A-9D0368E3A46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationTraining\CreatioFrameWorkk\Testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFDB1F9-7903-427D-B2D2-2B590F4EE7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{3A04FA1A-B540-45DA-AC6F-1027417A889C}"/>
   </bookViews>
   <sheets>
     <sheet name="verifyCookieContentDisplayed" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="verifySignupPageWhenCountrySele" sheetId="3" r:id="rId3"/>
     <sheet name="verifySigninPage" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,12 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>CookiesContent</t>
   </si>
   <si>
-    <t>We may use cookies and similar technologies to collect information about the ways you interact with and use the website, to support and enhance features and functionality, to monitor performance, to personalize content and experiences, for marketing and analytics, and for other lawful purposes. We also may share information about your use of our site with our social media, advertising and analytics partners who may combine it with other information that you’ve provided to them or that they’ve collected from your use of their services. Please, see more details on</t>
+    <t xml:space="preserve">We may use cookies and similar technologies to collect information about the ways you interact with and use the website, to support and enhance features and functionality, to monitor performance, to personalize content and experiences, for marketing and analytics, and for other lawful purposes. We also may share information about your use of our site with our social media, advertising and analytics partners who may combine it with other information that you’ve provided to them or that they’ve collected from your use of their services. Please, see more details on the "About" tab </t>
   </si>
   <si>
     <t>Username</t>
@@ -54,23 +59,29 @@
     <t>BharathTechAcademy@123</t>
   </si>
   <si>
+    <t>BharathTechAcademy13@outlook.com</t>
+  </si>
+  <si>
+    <t>BharathTechAcademy162345182754@gmail.com</t>
+  </si>
+  <si>
+    <t>ABCD123#</t>
+  </si>
+  <si>
     <t>isValidUser</t>
   </si>
   <si>
-    <t>BharathTechAcademy13@outlook.com</t>
-  </si>
-  <si>
-    <t>BharathTechAcademy162345182754@gmail.com</t>
-  </si>
-  <si>
-    <t>ABCD123#</t>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>invalid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,29 +90,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,24 +117,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -169,13 +157,13 @@
         <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="145F82"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E87331"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="186C24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
         <a:srgbClr val="0F9ED5"/>
@@ -195,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -461,21 +449,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206E00AD-9159-4B6B-A66C-76C6B00EB99E}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="30" max="30" width="255.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -484,7 +474,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -494,137 +484,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CE2C9D-B810-40A8-92BC-AFFAF43E5466}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A9B66BCC-CD74-4C27-9B3A-0110E43F8485}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{852C5D34-DFFA-40CC-A300-6F17FCB8E0C7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29515750-7513-4FCB-8FA0-6A3FF2B3884F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5752402-ECF3-4804-A616-01A6489B6291}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{84C107D8-0DED-4E04-A386-33A763F9B738}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{FCD874BC-5E13-4FBB-91EC-E1DCA75B9AEC}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B00887A6-845A-45A0-901C-03537A7EDB18}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{36A00F32-7754-47A7-8D4A-42A0C649D62C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08291DCD-9D22-4FB5-A05E-46DAEAC029DB}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3961A0D5-1CB0-412F-8457-69AE67D292A1}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{B1CC70A1-CC97-436C-8C79-C2BF7BB26E84}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80325AEF-CF26-47B3-8A3B-14C4D2942EF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512C8D30-5AAF-47D1-8596-C27955D7B78D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.75" customWidth="1"/>
+    <col min="2" max="2" width="32.25" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="b">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7E7C7624-48EF-4392-80FC-F9E150D762B2}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{EABD7176-FBF9-4C2A-9666-0E9A819524EC}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{E2230FFF-BFF1-4359-9674-5AAF32318E81}"/>
-    <hyperlink ref="B3" r:id="rId4" location="@^%58358hgdfj" xr:uid="{15ADFE53-9DB5-4390-803B-96013998509E}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{6B3B6D8F-3897-42D9-B721-8D8F1335B9C6}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{83EB209B-5D12-4F7C-A408-2BBBB936B89E}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{D6BCA045-1279-4242-A56D-BE842108F754}"/>
+    <hyperlink ref="B3" r:id="rId4" display="GFCJF#@^%58358hgdfj" xr:uid="{BF3497C0-495E-47F1-B0A9-DBFE464192AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
